--- a/data/Subset1_WithDialogActs/Ribbons 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ribbons 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1635,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2053,12 +2053,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2513,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3729,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4945,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5325,12 +5325,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5975,12 +5975,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6203,12 +6203,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6507,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6773,12 +6773,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7191,12 +7191,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7305,12 +7305,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8297,12 +8297,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8563,12 +8563,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9137,12 +9137,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10049,12 +10049,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10201,12 +10201,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10357,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10395,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11083,12 +11083,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11995,12 +11995,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12565,12 +12565,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12717,12 +12717,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12945,12 +12945,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13709,12 +13709,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14473,12 +14473,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14781,12 +14781,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15727,12 +15727,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15841,12 +15841,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16373,12 +16373,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16411,12 +16411,12 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17095,12 +17095,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17561,12 +17561,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17735,12 +17735,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17963,12 +17963,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18001,12 +18001,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18039,12 +18039,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18221,12 +18221,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19133,12 +19133,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19553,12 +19553,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19705,12 +19705,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19847,12 +19847,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20151,12 +20151,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20227,12 +20227,12 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20721,12 +20721,12 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20797,12 +20797,12 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21367,12 +21367,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21405,12 +21405,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21443,12 +21443,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21633,12 +21633,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22051,12 +22051,12 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22625,12 +22625,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22777,12 +22777,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23309,12 +23309,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24491,12 +24491,12 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24643,12 +24643,12 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24871,12 +24871,12 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24947,12 +24947,12 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24985,12 +24985,12 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25099,12 +25099,12 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25745,12 +25745,12 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27157,12 +27157,12 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27195,12 +27195,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27727,12 +27727,12 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27803,12 +27803,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28183,12 +28183,12 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28449,12 +28449,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28601,12 +28601,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28829,12 +28829,12 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29289,12 +29289,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29479,12 +29479,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29671,12 +29671,12 @@
       <c r="H767" t="inlineStr"/>
       <c r="I767" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29709,12 +29709,12 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29823,12 +29823,12 @@
       <c r="H771" t="inlineStr"/>
       <c r="I771" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30017,12 +30017,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30131,12 +30131,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30397,12 +30397,12 @@
       <c r="H786" t="inlineStr"/>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30473,12 +30473,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30663,12 +30663,12 @@
       <c r="H793" t="inlineStr"/>
       <c r="I793" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30777,12 +30777,12 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30929,12 +30929,12 @@
       <c r="H800" t="inlineStr"/>
       <c r="I800" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30967,12 +30967,12 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31233,12 +31233,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31347,12 +31347,12 @@
       <c r="H811" t="inlineStr"/>
       <c r="I811" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31805,12 +31805,12 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32079,12 +32079,12 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32345,12 +32345,12 @@
       <c r="H837" t="inlineStr"/>
       <c r="I837" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33451,12 +33451,12 @@
       <c r="H866" t="inlineStr"/>
       <c r="I866" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33987,12 +33987,12 @@
       <c r="H880" t="inlineStr"/>
       <c r="I880" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34223,12 +34223,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34261,12 +34261,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
